--- a/CO3098_CC02_G5.xlsx
+++ b/CO3098_CC02_G5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BKU - K21 - Computer Engineering\LSI Design\Lab\Lab 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BKU - K21 - Computer Engineering\LSI Design\Lab\Lab 1\LSI-LAB-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EED4A3B-6090-4973-A623-18DCAAA9EF6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAFAE0D-2E2F-466C-AD6C-1AFF8670A018}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,15 +57,15 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Giang Truong Le. Nguyen - Personal View" guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
+    <customWorkbookView name="Phong Thanh. Phan - Personal View" guid="{BBCD1273-FB62-4046-AADE-F9CEEA687EB3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="5"/>
     <customWorkbookView name="Hung Quang. Truong - Personal View" guid="{C61E42EC-A28A-4F34-B1F0-5B0C369C3BFF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1864" windowHeight="1218" activeSheetId="6"/>
-    <customWorkbookView name="Phong Thanh. Phan - Personal View" guid="{BBCD1273-FB62-4046-AADE-F9CEEA687EB3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="5"/>
-    <customWorkbookView name="Giang Truong Le. Nguyen - Personal View" guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>&lt;Revision history&gt;</t>
   </si>
@@ -199,7 +199,10 @@
     <t>Nguyen Khanh Nam</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>test_rst</t>
+  </si>
+  <si>
+    <t>Test reset input signal</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1731,21 +1734,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="double">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
@@ -2205,6 +2193,76 @@
       </top>
       <bottom style="double">
         <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3300,25 +3358,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -3405,42 +3463,42 @@
     <xf numFmtId="0" fontId="81" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="4" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="33" borderId="43" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="33" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="87" fillId="31" borderId="44" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="31" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="88" fillId="33" borderId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="33" borderId="43" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="33" borderId="43" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="84" fillId="33" borderId="42" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="33" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="87" fillId="31" borderId="43" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="31" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="88" fillId="33" borderId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="33" borderId="42" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="33" borderId="42" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="31" borderId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="31" borderId="43" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="31" borderId="43" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="93" fillId="31" borderId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="31" borderId="42" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="31" borderId="42" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -3458,17 +3516,17 @@
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="31" borderId="43" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="31" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="94" fillId="31" borderId="42" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="31" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -3477,149 +3535,149 @@
     <xf numFmtId="0" fontId="90" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="49" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="49" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="109" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="43" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="19" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="43" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="42" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="19" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="43" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="42" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="42" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="41" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="53">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="53" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="53" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="53" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="53" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="53" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="53" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="53" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="84" fillId="33" borderId="54" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="33" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="87" fillId="31" borderId="55" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="31" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="88" fillId="33" borderId="54">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="33" borderId="54" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="33" borderId="54" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="31" borderId="54">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="31" borderId="54" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="31" borderId="54" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="31" borderId="54" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="31" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="57">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="52">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="52" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="52" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="52" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="52" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="52" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="52" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="52" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="4" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="84" fillId="33" borderId="53" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="33" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="87" fillId="31" borderId="54" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="31" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="88" fillId="33" borderId="53">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="33" borderId="53" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="33" borderId="53" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="31" borderId="53">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="31" borderId="53" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="31" borderId="53" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="31" borderId="53" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="31" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="56">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="101" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="49" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="49" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="110" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3707,9 +3765,6 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="86" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="51" borderId="39" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3731,7 +3786,7 @@
     <xf numFmtId="0" fontId="104" fillId="2" borderId="36" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="52" borderId="48" xfId="457" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="52" borderId="47" xfId="457" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="86" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3740,123 +3795,129 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="26" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="51" borderId="38" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="105" fillId="2" borderId="37" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="50" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="50" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="50" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="63" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="62" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="2" borderId="70" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="105" fillId="2" borderId="69" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="51" borderId="58" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="51" borderId="57" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="71" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="62" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="2" borderId="58" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="2" borderId="62" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="62" xfId="86" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="51" borderId="73" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="51" borderId="38" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="106" fillId="0" borderId="0" xfId="86" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="51" borderId="48" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="51" borderId="34" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="51" borderId="50" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="62" xfId="86" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="51" borderId="75" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="51" borderId="74" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="72" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="63" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="2" borderId="59" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="2" borderId="63" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="49" xfId="86" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="63" xfId="86" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="51" borderId="74" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="51" borderId="38" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="106" fillId="0" borderId="0" xfId="86" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="51" borderId="49" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="51" borderId="34" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="51" borderId="51" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="63" xfId="86" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="51" borderId="76" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="51" borderId="75" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="40" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="50" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="50" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="40" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3872,41 +3933,71 @@
     <xf numFmtId="0" fontId="44" fillId="51" borderId="35" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="51" borderId="71" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="51" borderId="70" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="51" borderId="40" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="51" borderId="39" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="51" borderId="47" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="51" borderId="46" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="106" fillId="0" borderId="40" xfId="86" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="106" fillId="0" borderId="39" xfId="86" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="106" fillId="0" borderId="47" xfId="86" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="106" fillId="0" borderId="46" xfId="86" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="51" borderId="33" xfId="86" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="51" borderId="41" xfId="86" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="51" borderId="40" xfId="86" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="51" borderId="33" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="51" borderId="41" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="51" borderId="40" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="73" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="105" fillId="2" borderId="58" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="58" xfId="86" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="50" xfId="86" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="76" xfId="86" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="52" borderId="77" xfId="457" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="51" borderId="78" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="52" borderId="13" xfId="457" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="64" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="79" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="51" borderId="80" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="47" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="81" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="86" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="586">
@@ -5121,12 +5212,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:9" ht="15.9" customHeight="1">
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="4:9" ht="15.9" customHeight="1">
-      <c r="D4" s="45"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
     </row>
@@ -5155,21 +5246,21 @@
       </c>
     </row>
     <row r="22" spans="3:15" ht="15.9" customHeight="1">
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="47" t="s">
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="45" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="10" t="s">
@@ -5177,44 +5268,44 @@
       </c>
     </row>
     <row r="23" spans="3:15" ht="15.9" customHeight="1">
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="70" t="s">
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="O23" s="48" t="s">
+      <c r="O23" s="46" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.9" customHeight="1">
-      <c r="D24" s="75"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="49" t="s">
+      <c r="D24" s="76"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="3:15" s="69" customFormat="1" ht="15.9" customHeight="1">
+    <row r="25" spans="3:15" s="67" customFormat="1" ht="15.9" customHeight="1">
       <c r="D25" s="17"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -5248,78 +5339,78 @@
       </c>
     </row>
     <row r="29" spans="3:15" ht="15.9" customHeight="1">
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="46" t="s">
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="3:15" ht="15.9" customHeight="1">
-      <c r="D30" s="50">
+      <c r="D30" s="48">
         <v>1</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="51" t="s">
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="3:15" ht="15.9" customHeight="1">
-      <c r="D31" s="50">
+      <c r="D31" s="48">
         <v>2</v>
       </c>
-      <c r="E31" s="72" t="s">
+      <c r="E31" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="51" t="s">
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="3:15" ht="15.9" customHeight="1">
-      <c r="D32" s="50">
+      <c r="D32" s="48">
         <v>3</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="51" t="s">
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5342,26 +5433,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:AS16"/>
+  <dimension ref="A2:AS17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="6" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.77734375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="11" style="31" customWidth="1"/>
-    <col min="5" max="5" width="38.21875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.6640625" style="32" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" style="33" customWidth="1"/>
-    <col min="10" max="10" width="23.77734375" style="33" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.21875" style="34" customWidth="1"/>
-    <col min="13" max="16384" width="5.6640625" style="34"/>
+    <col min="1" max="1" width="5.6640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="6" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.77734375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="11" style="30" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.6640625" style="31" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" style="32" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.21875" style="33" customWidth="1"/>
+    <col min="13" max="16384" width="5.6640625" style="33"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:45" ht="20.399999999999999">
@@ -5369,8 +5460,8 @@
       <c r="C2" s="4"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="1:45" ht="22.8">
       <c r="B3" s="6" t="s">
@@ -5379,18 +5470,18 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="1:45" s="19" customFormat="1">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="70" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -5485,16 +5576,16 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:45" ht="18" thickBot="1">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="87" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="27"/>
@@ -5502,191 +5593,207 @@
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:45" ht="15.6">
-      <c r="B8" s="62"/>
-      <c r="C8" s="63" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="63" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="63" t="s">
+      <c r="F8" s="62"/>
+      <c r="G8" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="89" t="s">
+      <c r="H8" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="89" t="s">
+      <c r="I8" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="91" t="s">
+      <c r="J8" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="91" t="s">
+      <c r="K8" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="84" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:45" ht="16.2" thickBot="1">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="68" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="84"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:45" ht="30.6" thickTop="1">
-      <c r="B10" s="41">
+      <c r="B10" s="39">
         <v>1</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="55">
         <v>1</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="55">
         <v>1</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="39" t="s">
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="93" t="s">
-        <v>44</v>
-      </c>
+      <c r="K10" s="53"/>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:45" ht="15.6">
-      <c r="B11" s="52"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57">
+      <c r="B11" s="50"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55">
         <v>2</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="55">
         <v>2</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="54" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="94" t="s">
-        <v>44</v>
-      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="69"/>
     </row>
     <row r="12" spans="1:45" ht="30">
-      <c r="B12" s="52"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="57">
+      <c r="B12" s="50"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="55">
         <v>3</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="55">
         <v>3</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="39" t="s">
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="55"/>
-      <c r="L12" s="93" t="s">
+      <c r="K12" s="53"/>
+      <c r="L12" s="68"/>
+    </row>
+    <row r="13" spans="1:45" ht="30">
+      <c r="B13" s="50"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="55">
+        <v>4</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="55">
+        <v>4</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="101"/>
+      <c r="L13" s="102"/>
+    </row>
+    <row r="14" spans="1:45" s="37" customFormat="1" ht="16.2" thickBot="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="94">
+        <v>5</v>
+      </c>
+      <c r="E14" s="95" t="s">
         <v>44</v>
       </c>
+      <c r="F14" s="94">
+        <v>5</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="105"/>
+      <c r="L14" s="104"/>
     </row>
-    <row r="13" spans="1:45" ht="30.6" thickBot="1">
-      <c r="B13" s="52"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="57">
-        <v>4</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="57">
-        <v>4</v>
-      </c>
-      <c r="G13" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="55"/>
-      <c r="L13" s="93" t="s">
-        <v>44</v>
-      </c>
+    <row r="15" spans="1:45" ht="16.8" thickTop="1" thickBot="1">
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="103"/>
     </row>
-    <row r="14" spans="1:45" ht="16.8" thickTop="1" thickBot="1">
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="16" spans="1:45" s="38" customFormat="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
+    <row r="17" spans="1:11" s="37" customFormat="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{C61E42EC-A28A-4F34-B1F0-5B0C369C3BFF}" scale="70">
-      <selection activeCell="W13" sqref="W13"/>
+    <customSheetView guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}">
+      <selection activeCell="J3" sqref="J3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -5695,8 +5802,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{D6408F3F-69A9-4377-B307-B0A0F5ECDF86}">
-      <selection activeCell="J3" sqref="J3"/>
+    <customSheetView guid="{C61E42EC-A28A-4F34-B1F0-5B0C369C3BFF}" scale="70">
+      <selection activeCell="W13" sqref="W13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -5710,7 +5817,7 @@
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="I8:I9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H10:H13">
+  <conditionalFormatting sqref="H10:H14">
     <cfRule type="containsText" dxfId="15" priority="92" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",H10)))</formula>
     </cfRule>
@@ -5718,7 +5825,7 @@
       <formula>NOT(ISERROR(SEARCH("NG",H10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H13">
+  <conditionalFormatting sqref="H10:H14">
     <cfRule type="cellIs" dxfId="13" priority="90" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -5726,12 +5833,12 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H13">
+  <conditionalFormatting sqref="H10:H14">
     <cfRule type="cellIs" dxfId="11" priority="89" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H13">
+  <conditionalFormatting sqref="H10:H14">
     <cfRule type="cellIs" dxfId="10" priority="86" operator="equal">
       <formula>"OK with reason"</formula>
     </cfRule>
@@ -5742,7 +5849,7 @@
       <formula>"""OK with reason"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I13">
+  <conditionalFormatting sqref="I10:I14">
     <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",I10)))</formula>
     </cfRule>
@@ -5750,7 +5857,7 @@
       <formula>NOT(ISERROR(SEARCH("NG",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I13">
+  <conditionalFormatting sqref="I10:I14">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -5758,12 +5865,12 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I13">
+  <conditionalFormatting sqref="I10:I14">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I13">
+  <conditionalFormatting sqref="I10:I14">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"OK with reason"</formula>
     </cfRule>
